--- a/grupos/4AEV - Estadisticos 20242.xlsx
+++ b/grupos/4AEV - Estadisticos 20242.xlsx
@@ -161,7 +161,7 @@
     <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
-    <t>Ameca Garcia Ivan</t>
+    <t>González Nuñez Veronica</t>
   </si>
   <si>
     <t>Silva Villegas Mario</t>
